--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.4957785436257</v>
+        <v>242.9118986755165</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.5366341540595</v>
+        <v>332.362776284322</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.5717343331357</v>
+        <v>300.6425393899314</v>
       </c>
       <c r="AD2" t="n">
-        <v>206495.7785436257</v>
+        <v>242911.8986755165</v>
       </c>
       <c r="AE2" t="n">
-        <v>282536.6341540595</v>
+        <v>332362.776284322</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.837198096674371e-06</v>
+        <v>7.099821112677345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.960416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>255571.7343331357</v>
+        <v>300642.5393899314</v>
       </c>
     </row>
     <row r="3">
@@ -3058,28 +3058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.3359163096715</v>
+        <v>102.4462655773289</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.6015860341982</v>
+        <v>140.1715001731015</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.8052241390423</v>
+        <v>126.7937289285545</v>
       </c>
       <c r="AD3" t="n">
-        <v>90335.91630967151</v>
+        <v>102446.2655773289</v>
       </c>
       <c r="AE3" t="n">
-        <v>123601.5860341982</v>
+        <v>140171.5001731015</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.906460566960351e-06</v>
+        <v>1.277876025990841e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>111805.2241390423</v>
+        <v>126793.7289285545</v>
       </c>
     </row>
     <row r="4">
@@ -3164,28 +3164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.08148940409498</v>
+        <v>77.27709001777301</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.04736499532319</v>
+        <v>105.7339237868758</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.54880945895273</v>
+        <v>95.64282649917718</v>
       </c>
       <c r="AD4" t="n">
-        <v>65081.48940409499</v>
+        <v>77277.09001777301</v>
       </c>
       <c r="AE4" t="n">
-        <v>89047.36499532319</v>
+        <v>105733.9237868758</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.013285718443772e-06</v>
+        <v>1.48266765729481e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.896875</v>
       </c>
       <c r="AH4" t="n">
-        <v>80548.80945895273</v>
+        <v>95642.82649917717</v>
       </c>
     </row>
     <row r="5">
@@ -3270,28 +3270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.15774219586599</v>
+        <v>73.35334280954399</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.67872096151717</v>
+        <v>100.3652797530697</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.69254127679224</v>
+        <v>90.78655831701667</v>
       </c>
       <c r="AD5" t="n">
-        <v>61157.74219586598</v>
+        <v>73353.34280954399</v>
       </c>
       <c r="AE5" t="n">
-        <v>83678.72096151717</v>
+        <v>100365.2797530697</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.443498895157179e-06</v>
+        <v>1.562268358588523e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>75692.54127679224</v>
+        <v>90786.55831701666</v>
       </c>
     </row>
     <row r="6">
@@ -3376,28 +3376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.09862156818746</v>
+        <v>69.29422218186546</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.12485304296665</v>
+        <v>94.81141183451921</v>
       </c>
       <c r="AC6" t="n">
-        <v>70.66872671748381</v>
+        <v>85.76274375770826</v>
       </c>
       <c r="AD6" t="n">
-        <v>57098.62156818746</v>
+        <v>69294.22218186547</v>
       </c>
       <c r="AE6" t="n">
-        <v>78124.85304296664</v>
+        <v>94811.41183451921</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.887571092483597e-06</v>
+        <v>1.644433341544802e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.709375</v>
       </c>
       <c r="AH6" t="n">
-        <v>70668.72671748381</v>
+        <v>85762.74375770826</v>
       </c>
     </row>
     <row r="7">
@@ -3482,28 +3482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55.59368617420463</v>
+        <v>67.78928678788265</v>
       </c>
       <c r="AB7" t="n">
-        <v>76.06573404385659</v>
+        <v>92.75229283540915</v>
       </c>
       <c r="AC7" t="n">
-        <v>68.8061271456565</v>
+        <v>83.90014418588095</v>
       </c>
       <c r="AD7" t="n">
-        <v>55593.68617420463</v>
+        <v>67789.28678788265</v>
       </c>
       <c r="AE7" t="n">
-        <v>76065.73404385659</v>
+        <v>92752.29283540916</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.030829600293896e-06</v>
+        <v>1.670939916204153e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.682291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>68806.1271456565</v>
+        <v>83900.14418588094</v>
       </c>
     </row>
     <row r="8">
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>53.39882408880594</v>
+        <v>65.59442470248395</v>
       </c>
       <c r="AB8" t="n">
-        <v>73.06262690813433</v>
+        <v>89.7491856996869</v>
       </c>
       <c r="AC8" t="n">
-        <v>66.08963234007928</v>
+        <v>81.18364938030373</v>
       </c>
       <c r="AD8" t="n">
-        <v>53398.82408880594</v>
+        <v>65594.42470248394</v>
       </c>
       <c r="AE8" t="n">
-        <v>73062.62690813433</v>
+        <v>89749.1856996869</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.200201420627656e-06</v>
+        <v>1.702278137364547e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.652083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>66089.63234007928</v>
+        <v>81183.64938030373</v>
       </c>
     </row>
     <row r="9">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>52.49489814044215</v>
+        <v>64.69049875412016</v>
       </c>
       <c r="AB9" t="n">
-        <v>71.82583554718526</v>
+        <v>88.51239433873782</v>
       </c>
       <c r="AC9" t="n">
-        <v>64.97087861077121</v>
+        <v>80.06489565099567</v>
       </c>
       <c r="AD9" t="n">
-        <v>52494.89814044215</v>
+        <v>64690.49875412016</v>
       </c>
       <c r="AE9" t="n">
-        <v>71825.83554718527</v>
+        <v>88512.39433873782</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.2662870662876e-06</v>
+        <v>1.714505712029197e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>2</v>
+        <v>1.639583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>64970.87861077121</v>
+        <v>80064.89565099566</v>
       </c>
     </row>
     <row r="10">
@@ -3800,28 +3800,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>52.67313189440644</v>
+        <v>64.86873250808445</v>
       </c>
       <c r="AB10" t="n">
-        <v>72.06970283247736</v>
+        <v>88.75626162402992</v>
       </c>
       <c r="AC10" t="n">
-        <v>65.19147154462499</v>
+        <v>80.28548858484945</v>
       </c>
       <c r="AD10" t="n">
-        <v>52673.13189440644</v>
+        <v>64868.73250808445</v>
       </c>
       <c r="AE10" t="n">
-        <v>72069.70283247736</v>
+        <v>88756.26162402992</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.258409307202308e-06</v>
+        <v>1.713048120347318e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>2</v>
+        <v>1.641666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>65191.47154462499</v>
+        <v>80285.48858484945</v>
       </c>
     </row>
   </sheetData>
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.6868097083999</v>
+        <v>152.4506113496681</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.4938997069474</v>
+        <v>208.5896520948229</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.1225520858558</v>
+        <v>188.6821484563679</v>
       </c>
       <c r="AD2" t="n">
-        <v>140686.8097083999</v>
+        <v>152450.6113496681</v>
       </c>
       <c r="AE2" t="n">
-        <v>192493.8997069474</v>
+        <v>208589.6520948229</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.033632225276591e-06</v>
+        <v>9.594879873912311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.122916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174122.5520858558</v>
+        <v>188682.1484563679</v>
       </c>
     </row>
     <row r="3">
@@ -4203,28 +4203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.52110399927803</v>
+        <v>88.19956478597452</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.6995503646222</v>
+        <v>120.6785356303</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.70717222459093</v>
+        <v>109.1611455631642</v>
       </c>
       <c r="AD3" t="n">
-        <v>76521.10399927803</v>
+        <v>88199.56478597452</v>
       </c>
       <c r="AE3" t="n">
-        <v>104699.5503646222</v>
+        <v>120678.5356303</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.836734850217749e-06</v>
+        <v>1.493802608660186e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.00625</v>
       </c>
       <c r="AH3" t="n">
-        <v>94707.17222459093</v>
+        <v>109161.1455631642</v>
       </c>
     </row>
     <row r="4">
@@ -4309,28 +4309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.53814592628089</v>
+        <v>69.30185805899796</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.72622966015597</v>
+        <v>94.82185957848303</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.21270879436615</v>
+        <v>85.77219438365165</v>
       </c>
       <c r="AD4" t="n">
-        <v>57538.14592628089</v>
+        <v>69301.85805899797</v>
       </c>
       <c r="AE4" t="n">
-        <v>78726.22966015596</v>
+        <v>94821.85957848302</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.639302943220714e-06</v>
+        <v>1.646784473412437e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.819791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>71212.70879436615</v>
+        <v>85772.19438365166</v>
       </c>
     </row>
     <row r="5">
@@ -4415,28 +4415,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.59073478509598</v>
+        <v>64.35444691781306</v>
       </c>
       <c r="AB5" t="n">
-        <v>71.95696347241494</v>
+        <v>88.05259339074199</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.08949187085621</v>
+        <v>79.64897746014174</v>
       </c>
       <c r="AD5" t="n">
-        <v>52590.73478509598</v>
+        <v>64354.44691781306</v>
       </c>
       <c r="AE5" t="n">
-        <v>71956.96347241494</v>
+        <v>88052.593390742</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.238286162688328e-06</v>
+        <v>1.760959919294664e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.702083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>65089.4918708562</v>
+        <v>79648.97746014173</v>
       </c>
     </row>
     <row r="6">
@@ -4521,28 +4521,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>50.00940901071073</v>
+        <v>61.77312114342781</v>
       </c>
       <c r="AB6" t="n">
-        <v>68.42507966784687</v>
+        <v>84.52070958617395</v>
       </c>
       <c r="AC6" t="n">
-        <v>61.89468609956495</v>
+        <v>76.45417168885048</v>
       </c>
       <c r="AD6" t="n">
-        <v>50009.40901071073</v>
+        <v>61773.12114342781</v>
       </c>
       <c r="AE6" t="n">
-        <v>68425.07966784688</v>
+        <v>84520.70958617395</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.53000562936278e-06</v>
+        <v>1.816566151819316e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AH6" t="n">
-        <v>61894.68609956495</v>
+        <v>76454.17168885047</v>
       </c>
     </row>
     <row r="7">
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>48.90516279416501</v>
+        <v>60.66887492688208</v>
       </c>
       <c r="AB7" t="n">
-        <v>66.91420127846492</v>
+        <v>83.00983119679199</v>
       </c>
       <c r="AC7" t="n">
-        <v>60.52800382313398</v>
+        <v>75.0874894124195</v>
       </c>
       <c r="AD7" t="n">
-        <v>48905.16279416501</v>
+        <v>60668.87492688208</v>
       </c>
       <c r="AE7" t="n">
-        <v>66914.20127846491</v>
+        <v>83009.83119679199</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.625082330865575e-06</v>
+        <v>1.834689238467288e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.633333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>60528.00382313398</v>
+        <v>75087.4894124195</v>
       </c>
     </row>
   </sheetData>
@@ -4924,28 +4924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.27728038964969</v>
+        <v>70.65547153481985</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.47403427501919</v>
+        <v>96.67393325331354</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.60282819686482</v>
+        <v>87.44750874635865</v>
       </c>
       <c r="AD2" t="n">
-        <v>60277.28038964969</v>
+        <v>70655.47153481985</v>
       </c>
       <c r="AE2" t="n">
-        <v>82474.03427501919</v>
+        <v>96673.93325331353</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.761494415745879e-06</v>
+        <v>1.865969019674154e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.002083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>74602.82819686482</v>
+        <v>87447.50874635865</v>
       </c>
     </row>
     <row r="3">
@@ -5030,28 +5030,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.52711281036687</v>
+        <v>50.99055530156083</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.45098367700387</v>
+        <v>69.76752730810678</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.15881962092296</v>
+        <v>63.10901242117595</v>
       </c>
       <c r="AD3" t="n">
-        <v>40527.11281036687</v>
+        <v>50990.55530156083</v>
       </c>
       <c r="AE3" t="n">
-        <v>55450.98367700387</v>
+        <v>69767.52730810677</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.036011182346241e-05</v>
+        <v>2.206432691231138e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.692708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>50158.81962092296</v>
+        <v>63109.01242117595</v>
       </c>
     </row>
   </sheetData>
@@ -5327,28 +5327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.71022515013229</v>
+        <v>88.5967698503119</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.3265583835429</v>
+        <v>121.2220091227769</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.17890088170647</v>
+        <v>109.6527507082891</v>
       </c>
       <c r="AD2" t="n">
-        <v>77710.22515013229</v>
+        <v>88596.7698503119</v>
       </c>
       <c r="AE2" t="n">
-        <v>106326.5583835429</v>
+        <v>121222.0091227769</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.234632396759906e-06</v>
+        <v>1.468880500690694e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.319791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>96178.90088170648</v>
+        <v>109652.7507082891</v>
       </c>
     </row>
     <row r="3">
@@ -5433,28 +5433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.70151937323295</v>
+        <v>59.67331541943315</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.63556736583215</v>
+        <v>81.64766275771535</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.27596234005764</v>
+        <v>73.85532441735251</v>
       </c>
       <c r="AD3" t="n">
-        <v>48701.51937323295</v>
+        <v>59673.31541943315</v>
       </c>
       <c r="AE3" t="n">
-        <v>66635.56736583215</v>
+        <v>81647.66275771536</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.352486572897384e-06</v>
+        <v>1.898878119371075e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.794791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>60275.96234005764</v>
+        <v>73855.3244173525</v>
       </c>
     </row>
     <row r="4">
@@ -5539,28 +5539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.4953310364766</v>
+        <v>54.46712708267679</v>
       </c>
       <c r="AB4" t="n">
-        <v>59.51223080266632</v>
+        <v>74.52432619454952</v>
       </c>
       <c r="AC4" t="n">
-        <v>53.83246702081243</v>
+        <v>67.41182909810729</v>
       </c>
       <c r="AD4" t="n">
-        <v>43495.3310364766</v>
+        <v>54467.12708267679</v>
       </c>
       <c r="AE4" t="n">
-        <v>59512.23080266632</v>
+        <v>74524.32619454952</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.015107193354804e-05</v>
+        <v>2.061018557207576e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.653125</v>
       </c>
       <c r="AH4" t="n">
-        <v>53832.46702081243</v>
+        <v>67411.82909810729</v>
       </c>
     </row>
     <row r="5">
@@ -5645,28 +5645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>43.6457387479443</v>
+        <v>54.61753479414449</v>
       </c>
       <c r="AB5" t="n">
-        <v>59.71802526901624</v>
+        <v>74.73012066089944</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.01862075212834</v>
+        <v>67.5979828294232</v>
       </c>
       <c r="AD5" t="n">
-        <v>43645.7387479443</v>
+        <v>54617.53479414449</v>
       </c>
       <c r="AE5" t="n">
-        <v>59718.02526901625</v>
+        <v>74730.12066089944</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.014978311311527e-05</v>
+        <v>2.060756882101123e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.653125</v>
       </c>
       <c r="AH5" t="n">
-        <v>54018.62075212834</v>
+        <v>67597.9828294232</v>
       </c>
     </row>
   </sheetData>
@@ -5942,28 +5942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.47738319700085</v>
+        <v>49.52387149399725</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.01469730920132</v>
+        <v>67.76074581707638</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.85961040821865</v>
+        <v>61.29375533911335</v>
       </c>
       <c r="AD2" t="n">
-        <v>39477.38319700085</v>
+        <v>49523.87149399725</v>
       </c>
       <c r="AE2" t="n">
-        <v>54014.69730920132</v>
+        <v>67760.74581707639</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.01400123378817e-05</v>
+        <v>2.257982688827589e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>48859.61040821865</v>
+        <v>61293.75533911336</v>
       </c>
     </row>
     <row r="3">
@@ -6048,28 +6048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.61139105525357</v>
+        <v>48.65787935224984</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.82980865599151</v>
+        <v>66.57585716386124</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.78780586506598</v>
+        <v>60.22195079595902</v>
       </c>
       <c r="AD3" t="n">
-        <v>38611.39105525357</v>
+        <v>48657.87935224984</v>
       </c>
       <c r="AE3" t="n">
-        <v>52829.80865599151</v>
+        <v>66575.85716386125</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.035356176376703e-05</v>
+        <v>2.305535974838567e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.759375</v>
       </c>
       <c r="AH3" t="n">
-        <v>47787.80586506598</v>
+        <v>60221.95079595902</v>
       </c>
     </row>
   </sheetData>
@@ -6345,28 +6345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.3182791572156</v>
+        <v>177.9021476118068</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.1450775847966</v>
+        <v>243.4135668511973</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.9936877241416</v>
+        <v>220.1825176640763</v>
       </c>
       <c r="AD2" t="n">
-        <v>154318.2791572156</v>
+        <v>177902.1476118068</v>
       </c>
       <c r="AE2" t="n">
-        <v>211145.0775847966</v>
+        <v>243413.5668511973</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.703504169158082e-06</v>
+        <v>8.893214798260102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>190993.6877241415</v>
+        <v>220182.5176640763</v>
       </c>
     </row>
     <row r="3">
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.92431506322865</v>
+        <v>91.71629404479974</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.3559738813929</v>
+        <v>125.4902797493674</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.91919321625402</v>
+        <v>113.5136635768347</v>
       </c>
       <c r="AD3" t="n">
-        <v>79924.31506322864</v>
+        <v>91716.29404479974</v>
       </c>
       <c r="AE3" t="n">
-        <v>109355.9738813929</v>
+        <v>125490.2797493674</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.577294515762824e-06</v>
+        <v>1.432687317685935e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.05625</v>
       </c>
       <c r="AH3" t="n">
-        <v>98919.19321625402</v>
+        <v>113513.6635768347</v>
       </c>
     </row>
     <row r="4">
@@ -6557,28 +6557,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.00296387229847</v>
+        <v>71.88019419989016</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.09870231398881</v>
+        <v>98.34965283461256</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.26331739141335</v>
+        <v>88.96330000270623</v>
       </c>
       <c r="AD4" t="n">
-        <v>60002.96387229847</v>
+        <v>71880.19419989016</v>
       </c>
       <c r="AE4" t="n">
-        <v>82098.7023139888</v>
+        <v>98349.65283461256</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.416324640376542e-06</v>
+        <v>1.591328085335906e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.851041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>74263.31739141335</v>
+        <v>88963.30000270624</v>
       </c>
     </row>
     <row r="5">
@@ -6663,28 +6663,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.57547187753594</v>
+        <v>66.45270220512761</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.67256832271073</v>
+        <v>90.92351884333448</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.54592320561598</v>
+        <v>82.24590581690887</v>
       </c>
       <c r="AD5" t="n">
-        <v>54575.47187753594</v>
+        <v>66452.70220512761</v>
       </c>
       <c r="AE5" t="n">
-        <v>74672.56832271074</v>
+        <v>90923.51884333447</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.051953522659663e-06</v>
+        <v>1.711510485070732e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.720833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>67545.92320561598</v>
+        <v>82245.90581690887</v>
       </c>
     </row>
     <row r="6">
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>52.53676377686048</v>
+        <v>64.41399410445216</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.88311795791431</v>
+        <v>88.13406847853804</v>
       </c>
       <c r="AC6" t="n">
-        <v>65.02269406861666</v>
+        <v>79.72267667990955</v>
       </c>
       <c r="AD6" t="n">
-        <v>52536.76377686048</v>
+        <v>64413.99410445215</v>
       </c>
       <c r="AE6" t="n">
-        <v>71883.11795791431</v>
+        <v>88134.06847853804</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.255803444201286e-06</v>
+        <v>1.750053687620983e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.683333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>65022.69406861666</v>
+        <v>79722.67667990955</v>
       </c>
     </row>
     <row r="7">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>49.64249226231482</v>
+        <v>61.51972258990649</v>
       </c>
       <c r="AB7" t="n">
-        <v>67.92304798546735</v>
+        <v>84.17399850609108</v>
       </c>
       <c r="AC7" t="n">
-        <v>61.44056761634566</v>
+        <v>76.14055022763856</v>
       </c>
       <c r="AD7" t="n">
-        <v>49642.49226231482</v>
+        <v>61519.72258990649</v>
       </c>
       <c r="AE7" t="n">
-        <v>67923.04798546735</v>
+        <v>84173.99850609108</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.579899394297173e-06</v>
+        <v>1.811332572379893e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.626041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>61440.56761634566</v>
+        <v>76140.55022763855</v>
       </c>
     </row>
     <row r="8">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>49.49415339966671</v>
+        <v>61.37138372725838</v>
       </c>
       <c r="AB8" t="n">
-        <v>67.72008420934355</v>
+        <v>83.9710347299673</v>
       </c>
       <c r="AC8" t="n">
-        <v>61.25697441815362</v>
+        <v>75.9569570294465</v>
       </c>
       <c r="AD8" t="n">
-        <v>49494.15339966671</v>
+        <v>61371.38372725838</v>
       </c>
       <c r="AE8" t="n">
-        <v>67720.08420934355</v>
+        <v>83971.0347299673</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.605474109325506e-06</v>
+        <v>1.816168146580989e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.621875</v>
       </c>
       <c r="AH8" t="n">
-        <v>61256.97441815362</v>
+        <v>75956.95702944649</v>
       </c>
     </row>
   </sheetData>
@@ -7278,28 +7278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.28148178495301</v>
+        <v>47.08107076975435</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.01016812091891</v>
+        <v>64.41839809740691</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.14182926877376</v>
+        <v>58.2703965947936</v>
       </c>
       <c r="AD2" t="n">
-        <v>37281.48178495301</v>
+        <v>47081.07076975435</v>
       </c>
       <c r="AE2" t="n">
-        <v>51010.16812091891</v>
+        <v>64418.39809740691</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.027042815951316e-05</v>
+        <v>2.354564208811581e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.815625</v>
       </c>
       <c r="AH2" t="n">
-        <v>46141.82926877376</v>
+        <v>58270.39659479359</v>
       </c>
     </row>
     <row r="3">
@@ -7384,28 +7384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.50440576483632</v>
+        <v>47.3039947496377</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.31518254490567</v>
+        <v>64.72341252139505</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.41773354422658</v>
+        <v>58.54630087024684</v>
       </c>
       <c r="AD3" t="n">
-        <v>37504.40576483632</v>
+        <v>47303.9947496377</v>
       </c>
       <c r="AE3" t="n">
-        <v>51315.18254490568</v>
+        <v>64723.41252139505</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.026810133415156e-05</v>
+        <v>2.354030768566298e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.815625</v>
       </c>
       <c r="AH3" t="n">
-        <v>46417.73354422658</v>
+        <v>58546.30087024684</v>
       </c>
     </row>
   </sheetData>
@@ -7681,28 +7681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.49615232132982</v>
+        <v>122.2013928000719</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.1350250664342</v>
+        <v>167.2013367739481</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.1424893408379</v>
+        <v>151.2438758608389</v>
       </c>
       <c r="AD2" t="n">
-        <v>99496.15232132982</v>
+        <v>122201.3928000719</v>
       </c>
       <c r="AE2" t="n">
-        <v>136135.0250664342</v>
+        <v>167201.3367739481</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.036573737869816e-06</v>
+        <v>1.18316011011731e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.683333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>123142.4893408379</v>
+        <v>151243.8758608389</v>
       </c>
     </row>
     <row r="3">
@@ -7787,28 +7787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.2225800548879</v>
+        <v>66.61787072154475</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.55797027936119</v>
+        <v>91.14950969421692</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.34682364219344</v>
+        <v>82.45032841816332</v>
       </c>
       <c r="AD3" t="n">
-        <v>55222.5800548879</v>
+        <v>66617.87072154475</v>
       </c>
       <c r="AE3" t="n">
-        <v>75557.97027936118</v>
+        <v>91149.50969421692</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.71146176848503e-06</v>
+        <v>1.70743446744024e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>68346.82364219344</v>
+        <v>82450.32841816332</v>
       </c>
     </row>
     <row r="4">
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.91239771138814</v>
+        <v>61.30768837804499</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.29234452827731</v>
+        <v>83.88388394313306</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.77461901542092</v>
+        <v>75.87812379139079</v>
       </c>
       <c r="AD4" t="n">
-        <v>49912.39771138814</v>
+        <v>61307.68837804499</v>
       </c>
       <c r="AE4" t="n">
-        <v>68292.34452827732</v>
+        <v>83883.88394313306</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.437909299673444e-06</v>
+        <v>1.849817179607462e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.716666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>61774.61901542093</v>
+        <v>75878.1237913908</v>
       </c>
     </row>
     <row r="5">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.70557449721574</v>
+        <v>58.10086516387257</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.90462753159344</v>
+        <v>79.49616694644916</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.80565957069967</v>
+        <v>71.90916434666954</v>
       </c>
       <c r="AD5" t="n">
-        <v>46705.57449721574</v>
+        <v>58100.86516387257</v>
       </c>
       <c r="AE5" t="n">
-        <v>63904.62753159344</v>
+        <v>79496.16694644917</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.823057102488877e-06</v>
+        <v>1.925305616687558e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.648958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>57805.65957069967</v>
+        <v>71909.16434666954</v>
       </c>
     </row>
     <row r="6">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>46.13206449182356</v>
+        <v>57.5273551584804</v>
       </c>
       <c r="AB6" t="n">
-        <v>63.11992584074049</v>
+        <v>78.71146525559624</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.09584870788575</v>
+        <v>71.19935348385562</v>
       </c>
       <c r="AD6" t="n">
-        <v>46132.06449182356</v>
+        <v>57527.35515848039</v>
       </c>
       <c r="AE6" t="n">
-        <v>63119.92584074049</v>
+        <v>78711.46525559624</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.93298826784637e-06</v>
+        <v>1.94685197317348e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.630208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>57095.84870788575</v>
+        <v>71199.35348385562</v>
       </c>
     </row>
   </sheetData>
@@ -8402,28 +8402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.3651985747908</v>
+        <v>141.5716122522281</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.9524865939764</v>
+        <v>193.7045255821457</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.4959685752345</v>
+        <v>175.2176375266497</v>
       </c>
       <c r="AD2" t="n">
-        <v>118365.1985747908</v>
+        <v>141571.612252228</v>
       </c>
       <c r="AE2" t="n">
-        <v>161952.4865939764</v>
+        <v>193704.5255821457</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337542137837256e-06</v>
+        <v>1.026250871465658e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.972916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>146495.9685752345</v>
+        <v>175217.6375266497</v>
       </c>
     </row>
     <row r="3">
@@ -8508,28 +8508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.60006275479098</v>
+        <v>73.2459400207954</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.28392346404391</v>
+        <v>100.2183265192274</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.23998410188504</v>
+        <v>90.65363009356203</v>
       </c>
       <c r="AD3" t="n">
-        <v>61600.06275479098</v>
+        <v>73245.9400207954</v>
       </c>
       <c r="AE3" t="n">
-        <v>84283.92346404391</v>
+        <v>100218.3265192274</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.095361112551972e-06</v>
+        <v>1.556497575483678e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.960416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>76239.98410188504</v>
+        <v>90653.63009356202</v>
       </c>
     </row>
     <row r="4">
@@ -8614,28 +8614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.88856628850517</v>
+        <v>66.53444355450959</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.10095790854918</v>
+        <v>91.03536096373264</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.9334278906307</v>
+        <v>82.34707388230768</v>
       </c>
       <c r="AD4" t="n">
-        <v>54888.56628850517</v>
+        <v>66534.44355450959</v>
       </c>
       <c r="AE4" t="n">
-        <v>75100.95790854917</v>
+        <v>91035.36096373264</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.895801997158707e-06</v>
+        <v>1.71039859100189e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.784375</v>
       </c>
       <c r="AH4" t="n">
-        <v>67933.4278906307</v>
+        <v>82347.07388230768</v>
       </c>
     </row>
     <row r="5">
@@ -8720,28 +8720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.07412039460582</v>
+        <v>61.71999766061023</v>
       </c>
       <c r="AB5" t="n">
-        <v>68.51362063815688</v>
+        <v>84.44802369334035</v>
       </c>
       <c r="AC5" t="n">
-        <v>61.97477684393661</v>
+        <v>76.3884228356136</v>
       </c>
       <c r="AD5" t="n">
-        <v>50074.12039460582</v>
+        <v>61719.99766061024</v>
       </c>
       <c r="AE5" t="n">
-        <v>68513.62063815688</v>
+        <v>84448.02369334035</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.533991351101913e-06</v>
+        <v>1.83310345472587e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.664583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>61974.77684393661</v>
+        <v>76388.4228356136</v>
       </c>
     </row>
     <row r="6">
@@ -8826,28 +8826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>48.09563506682424</v>
+        <v>59.74151233282866</v>
       </c>
       <c r="AB6" t="n">
-        <v>65.80656972807506</v>
+        <v>81.74097278325853</v>
       </c>
       <c r="AC6" t="n">
-        <v>59.52608307334233</v>
+        <v>73.93972906501932</v>
       </c>
       <c r="AD6" t="n">
-        <v>48095.63506682424</v>
+        <v>59741.51233282866</v>
       </c>
       <c r="AE6" t="n">
-        <v>65806.56972807506</v>
+        <v>81740.97278325853</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.706145557345845e-06</v>
+        <v>1.866203597005196e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.635416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>59526.08307334234</v>
+        <v>73939.72906501932</v>
       </c>
     </row>
     <row r="7">
@@ -8932,28 +8932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>48.19027880816093</v>
+        <v>59.83615607416535</v>
       </c>
       <c r="AB7" t="n">
-        <v>65.93606547035903</v>
+        <v>81.87046852554251</v>
       </c>
       <c r="AC7" t="n">
-        <v>59.64321992373119</v>
+        <v>74.05686591540815</v>
       </c>
       <c r="AD7" t="n">
-        <v>48190.27880816093</v>
+        <v>59836.15607416535</v>
       </c>
       <c r="AE7" t="n">
-        <v>65936.06547035903</v>
+        <v>81870.4685255425</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.699289858867104e-06</v>
+        <v>1.864885449746285e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.636458333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>59643.21992373119</v>
+        <v>74056.86591540815</v>
       </c>
     </row>
   </sheetData>
@@ -9229,28 +9229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.7647251154254</v>
+        <v>209.9504359941642</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.1714922640813</v>
+        <v>287.2634488866142</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.9137217744013</v>
+        <v>259.847428501743</v>
       </c>
       <c r="AD2" t="n">
-        <v>185764.7251154254</v>
+        <v>209950.4359941642</v>
       </c>
       <c r="AE2" t="n">
-        <v>254171.4922640813</v>
+        <v>287263.4488866142</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.125064352760468e-06</v>
+        <v>7.684682017811853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.713541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>229913.7217744013</v>
+        <v>259847.428501743</v>
       </c>
     </row>
     <row r="3">
@@ -9335,28 +9335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.97858179287132</v>
+        <v>98.98618588622013</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.0079328331691</v>
+        <v>135.4372664917862</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.6499827522852</v>
+        <v>122.5113238652437</v>
       </c>
       <c r="AD3" t="n">
-        <v>86978.58179287132</v>
+        <v>98986.18588622013</v>
       </c>
       <c r="AE3" t="n">
-        <v>119007.9328331691</v>
+        <v>135437.2664917862</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.104310174339218e-06</v>
+        <v>1.323479101827058e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>107649.9827522852</v>
+        <v>122511.3238652437</v>
       </c>
     </row>
     <row r="4">
@@ -9441,28 +9441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.15455158430346</v>
+        <v>76.24740702367284</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.7790877766746</v>
+        <v>104.325066087941</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.40157483801329</v>
+        <v>94.36842820168408</v>
       </c>
       <c r="AD4" t="n">
-        <v>64154.55158430347</v>
+        <v>76247.40702367283</v>
       </c>
       <c r="AE4" t="n">
-        <v>87779.0877766746</v>
+        <v>104325.066087941</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.073226794200145e-06</v>
+        <v>1.503980919221048e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.896875</v>
       </c>
       <c r="AH4" t="n">
-        <v>79401.57483801329</v>
+        <v>94368.42820168409</v>
       </c>
     </row>
     <row r="5">
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.79350165898379</v>
+        <v>70.88635709835319</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.44386275602545</v>
+        <v>96.98984106729185</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.76641339827958</v>
+        <v>87.73326676195039</v>
       </c>
       <c r="AD5" t="n">
-        <v>58793.50165898379</v>
+        <v>70886.35709835318</v>
       </c>
       <c r="AE5" t="n">
-        <v>80443.86275602545</v>
+        <v>96989.84106729185</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.654959097762116e-06</v>
+        <v>1.612353235143135e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.769791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>72766.41339827958</v>
+        <v>87733.26676195039</v>
       </c>
     </row>
     <row r="6">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.49095778425956</v>
+        <v>67.58381322362894</v>
       </c>
       <c r="AB6" t="n">
-        <v>75.9251765286771</v>
+        <v>92.47115483994349</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.67898424245197</v>
+        <v>83.64583760612278</v>
       </c>
       <c r="AD6" t="n">
-        <v>55490.95778425955</v>
+        <v>67583.81322362894</v>
       </c>
       <c r="AE6" t="n">
-        <v>75925.1765286771</v>
+        <v>92471.1548399435</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.019203515336182e-06</v>
+        <v>1.680209207473521e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.697916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>68678.98424245197</v>
+        <v>83645.83760612278</v>
       </c>
     </row>
     <row r="7">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>53.60688301319064</v>
+        <v>65.69973845256001</v>
       </c>
       <c r="AB7" t="n">
-        <v>73.34730230738927</v>
+        <v>89.89328061865567</v>
       </c>
       <c r="AC7" t="n">
-        <v>66.34713871877385</v>
+        <v>81.31399208244463</v>
       </c>
       <c r="AD7" t="n">
-        <v>53606.88301319064</v>
+        <v>65699.73845256001</v>
       </c>
       <c r="AE7" t="n">
-        <v>73347.30230738927</v>
+        <v>89893.28061865567</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.198311186149751e-06</v>
+        <v>1.713575608078451e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.665625</v>
       </c>
       <c r="AH7" t="n">
-        <v>66347.13871877384</v>
+        <v>81313.99208244463</v>
       </c>
     </row>
     <row r="8">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>52.14790531671495</v>
+        <v>64.24076075608433</v>
       </c>
       <c r="AB8" t="n">
-        <v>71.35106465751896</v>
+        <v>87.89704296878536</v>
       </c>
       <c r="AC8" t="n">
-        <v>64.54141918846939</v>
+        <v>79.50827255214017</v>
       </c>
       <c r="AD8" t="n">
-        <v>52147.90531671495</v>
+        <v>64240.76075608433</v>
       </c>
       <c r="AE8" t="n">
-        <v>71351.06465751896</v>
+        <v>87897.04296878536</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.311099021547129e-06</v>
+        <v>1.734587126357581e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.644791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>64541.41918846939</v>
+        <v>79508.27255214017</v>
       </c>
     </row>
     <row r="9">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>51.41016055196118</v>
+        <v>63.50301599133056</v>
       </c>
       <c r="AB9" t="n">
-        <v>70.34164972338138</v>
+        <v>86.88762803464779</v>
       </c>
       <c r="AC9" t="n">
-        <v>63.62834139892283</v>
+        <v>78.59519476259364</v>
       </c>
       <c r="AD9" t="n">
-        <v>51410.16055196118</v>
+        <v>63503.01599133056</v>
       </c>
       <c r="AE9" t="n">
-        <v>70341.64972338139</v>
+        <v>86887.62803464779</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.400505806321062e-06</v>
+        <v>1.751242932242472e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>2</v>
+        <v>1.629166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>63628.34139892283</v>
+        <v>78595.19476259363</v>
       </c>
     </row>
   </sheetData>
@@ -10268,28 +10268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.12859369410467</v>
+        <v>95.16382583719299</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.1084533838373</v>
+        <v>130.2073448420859</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.1226641486427</v>
+        <v>117.780538597548</v>
       </c>
       <c r="AD2" t="n">
-        <v>84128.59369410467</v>
+        <v>95163.82583719298</v>
       </c>
       <c r="AE2" t="n">
-        <v>115108.4533838373</v>
+        <v>130207.3448420859</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.824165531769149e-06</v>
+        <v>1.367902175827021e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.428125</v>
       </c>
       <c r="AH2" t="n">
-        <v>104122.6641486427</v>
+        <v>117780.538597548</v>
       </c>
     </row>
     <row r="3">
@@ -10374,28 +10374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.63120113038128</v>
+        <v>60.75168461949017</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.9075989606263</v>
+        <v>83.12313507152412</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.42659302475261</v>
+        <v>75.18997972437022</v>
       </c>
       <c r="AD3" t="n">
-        <v>49631.20113038128</v>
+        <v>60751.68461949017</v>
       </c>
       <c r="AE3" t="n">
-        <v>67907.5989606263</v>
+        <v>83123.13507152411</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.326592886644399e-06</v>
+        <v>1.869513077210811e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.777083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>61426.59302475261</v>
+        <v>75189.97972437022</v>
       </c>
     </row>
     <row r="4">
@@ -10480,28 +10480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.90783748586811</v>
+        <v>56.02832097497701</v>
       </c>
       <c r="AB4" t="n">
-        <v>61.44488444210936</v>
+        <v>76.66042055300716</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.58067090940407</v>
+        <v>69.34405760902168</v>
       </c>
       <c r="AD4" t="n">
-        <v>44907.83748586811</v>
+        <v>56028.320974977</v>
       </c>
       <c r="AE4" t="n">
-        <v>61444.88444210935</v>
+        <v>76660.42055300716</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.002418627196722e-05</v>
+        <v>2.009345486782834e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.653125</v>
       </c>
       <c r="AH4" t="n">
-        <v>55580.67090940407</v>
+        <v>69344.05760902168</v>
       </c>
     </row>
     <row r="5">
@@ -10586,28 +10586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.17836169685543</v>
+        <v>55.29884518596432</v>
       </c>
       <c r="AB5" t="n">
-        <v>60.4467834853822</v>
+        <v>75.66231959628001</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.67782730714313</v>
+        <v>68.44121400676076</v>
       </c>
       <c r="AD5" t="n">
-        <v>44178.36169685543</v>
+        <v>55298.84518596432</v>
       </c>
       <c r="AE5" t="n">
-        <v>60446.7834853822</v>
+        <v>75662.31959628001</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.013443307151767e-05</v>
+        <v>2.03144442859205e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.635416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>54677.82730714313</v>
+        <v>68441.21400676075</v>
       </c>
     </row>
   </sheetData>
@@ -10883,28 +10883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.512924365675</v>
+        <v>76.07292202652633</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.63767334332387</v>
+        <v>104.0863280171104</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.08277960672338</v>
+        <v>94.15247495726254</v>
       </c>
       <c r="AD2" t="n">
-        <v>65512.924365675</v>
+        <v>76072.92202652633</v>
       </c>
       <c r="AE2" t="n">
-        <v>89637.67334332387</v>
+        <v>104086.3280171104</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.228918691633346e-06</v>
+        <v>1.721541252233058e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.097916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>81082.77960672337</v>
+        <v>94152.47495726254</v>
       </c>
     </row>
     <row r="3">
@@ -10989,28 +10989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.99989853090293</v>
+        <v>52.64514753777828</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.46611407455183</v>
+        <v>72.03141340115603</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.98162880158823</v>
+        <v>65.15683640288941</v>
       </c>
       <c r="AD3" t="n">
-        <v>41999.89853090292</v>
+        <v>52645.14753777828</v>
       </c>
       <c r="AE3" t="n">
-        <v>57466.11407455184</v>
+        <v>72031.41340115602</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.022843805311809e-05</v>
+        <v>2.13985320723324e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>51981.62880158823</v>
+        <v>65156.83640288941</v>
       </c>
     </row>
     <row r="4">
@@ -11095,28 +11095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.59779172481887</v>
+        <v>52.24304073169416</v>
       </c>
       <c r="AB4" t="n">
-        <v>56.91593380277003</v>
+        <v>71.48123312937174</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.48395696276079</v>
+        <v>64.65916456406119</v>
       </c>
       <c r="AD4" t="n">
-        <v>41597.79172481887</v>
+        <v>52243.04073169416</v>
       </c>
       <c r="AE4" t="n">
-        <v>56915.93380277003</v>
+        <v>71481.23312937174</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.031825568066034e-05</v>
+        <v>2.158643616615811e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.672916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>51483.95696276079</v>
+        <v>64659.16456406118</v>
       </c>
     </row>
   </sheetData>
@@ -19589,28 +19589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.60278566012359</v>
+        <v>54.86817086301744</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.02749907618917</v>
+        <v>75.07305198761419</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.20312021700312</v>
+        <v>67.90818527162354</v>
       </c>
       <c r="AD2" t="n">
-        <v>44602.78566012358</v>
+        <v>54868.17086301744</v>
       </c>
       <c r="AE2" t="n">
-        <v>61027.49907618917</v>
+        <v>75073.05198761419</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.392532052377993e-06</v>
+        <v>2.041800999562705e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.901041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>55203.12021700312</v>
+        <v>67908.18527162354</v>
       </c>
     </row>
     <row r="3">
@@ -19695,28 +19695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.31438912919149</v>
+        <v>49.57977433208838</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.79168163483488</v>
+        <v>67.83723454641176</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.6578790368086</v>
+        <v>61.3629440914736</v>
       </c>
       <c r="AD3" t="n">
-        <v>39314.38912919149</v>
+        <v>49579.77433208837</v>
       </c>
       <c r="AE3" t="n">
-        <v>53791.68163483488</v>
+        <v>67837.23454641177</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.046479370096306e-05</v>
+        <v>2.274895216719989e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.70625</v>
       </c>
       <c r="AH3" t="n">
-        <v>48657.8790368086</v>
+        <v>61362.9440914736</v>
       </c>
     </row>
   </sheetData>
@@ -19992,28 +19992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.24070187543071</v>
+        <v>45.75307921647371</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.58612713274835</v>
+        <v>62.60138146735675</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.8536967538559</v>
+        <v>56.62679348171599</v>
       </c>
       <c r="AD2" t="n">
-        <v>36240.70187543071</v>
+        <v>45753.07921647371</v>
       </c>
       <c r="AE2" t="n">
-        <v>49586.12713274836</v>
+        <v>62601.38146735675</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.96679367527892e-06</v>
+        <v>2.370628749652207e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.922916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>44853.6967538559</v>
+        <v>56626.79348171598</v>
       </c>
     </row>
   </sheetData>
@@ -20289,28 +20289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.056487472049</v>
+        <v>131.0176592197843</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.8476532749757</v>
+        <v>179.2641414356165</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.7372807519368</v>
+        <v>162.1554233758542</v>
       </c>
       <c r="AD2" t="n">
-        <v>108056.487472049</v>
+        <v>131017.6592197843</v>
       </c>
       <c r="AE2" t="n">
-        <v>147847.6532749757</v>
+        <v>179264.1414356165</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.692103102425196e-06</v>
+        <v>1.104597116419198e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.815625</v>
       </c>
       <c r="AH2" t="n">
-        <v>133737.2807519368</v>
+        <v>162155.4233758542</v>
       </c>
     </row>
     <row r="3">
@@ -20395,28 +20395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.45277721459426</v>
+        <v>69.9760335157477</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.97766853951033</v>
+        <v>95.74429618092955</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.34471210348082</v>
+        <v>86.60659493140891</v>
       </c>
       <c r="AD3" t="n">
-        <v>58452.77721459427</v>
+        <v>69976.03351574769</v>
       </c>
       <c r="AE3" t="n">
-        <v>79977.66853951033</v>
+        <v>95744.29618092955</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.386054420708663e-06</v>
+        <v>1.627379435081306e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.911458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>72344.71210348082</v>
+        <v>86606.59493140891</v>
       </c>
     </row>
     <row r="4">
@@ -20501,28 +20501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.23984662917024</v>
+        <v>63.76310293032366</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.47686281738467</v>
+        <v>87.24349045880389</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.65521134851636</v>
+        <v>78.91709417644444</v>
       </c>
       <c r="AD4" t="n">
-        <v>52239.84662917024</v>
+        <v>63763.10293032366</v>
       </c>
       <c r="AE4" t="n">
-        <v>71476.86281738467</v>
+        <v>87243.49045880389</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.190331524927746e-06</v>
+        <v>1.7834556961989e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.74375</v>
       </c>
       <c r="AH4" t="n">
-        <v>64655.21134851636</v>
+        <v>78917.09417644444</v>
       </c>
     </row>
     <row r="5">
@@ -20607,28 +20607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.61415279373349</v>
+        <v>60.13740909488691</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.51602855741959</v>
+        <v>82.28265619883881</v>
       </c>
       <c r="AC5" t="n">
-        <v>60.16783214774616</v>
+        <v>74.42971497567423</v>
       </c>
       <c r="AD5" t="n">
-        <v>48614.15279373349</v>
+        <v>60137.40909488691</v>
       </c>
       <c r="AE5" t="n">
-        <v>66516.02855741959</v>
+        <v>82282.65619883881</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.630245096950389e-06</v>
+        <v>1.868824364753558e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.664583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>60167.83214774616</v>
+        <v>74429.71497567423</v>
       </c>
     </row>
     <row r="6">
@@ -20713,28 +20713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>47.17878876954494</v>
+        <v>58.70204507069837</v>
       </c>
       <c r="AB6" t="n">
-        <v>64.55210017573422</v>
+        <v>80.31872781715347</v>
       </c>
       <c r="AC6" t="n">
-        <v>58.39133833441743</v>
+        <v>72.6532211623455</v>
       </c>
       <c r="AD6" t="n">
-        <v>47178.78876954495</v>
+        <v>58702.04507069837</v>
       </c>
       <c r="AE6" t="n">
-        <v>64552.10017573423</v>
+        <v>80318.72781715347</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.801655981606991e-06</v>
+        <v>1.902087987268385e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.635416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>58391.33833441744</v>
+        <v>72653.22116234551</v>
       </c>
     </row>
   </sheetData>
@@ -21010,28 +21010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.2086541896479</v>
+        <v>192.0117233973043</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.1505015042581</v>
+        <v>262.7189109114572</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.1852606590157</v>
+        <v>237.6453867824518</v>
       </c>
       <c r="AD2" t="n">
-        <v>168208.6541896479</v>
+        <v>192011.7233973043</v>
       </c>
       <c r="AE2" t="n">
-        <v>230150.5015042581</v>
+        <v>262718.9109114572</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.42167218237171e-06</v>
+        <v>8.296791323267909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.492708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>208185.2606590157</v>
+        <v>237645.3867824518</v>
       </c>
     </row>
     <row r="3">
@@ -21116,28 +21116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.10086258357043</v>
+        <v>95.00244194167416</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.7022663381084</v>
+        <v>129.9865322764822</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.8506816209618</v>
+        <v>117.5808000732931</v>
       </c>
       <c r="AD3" t="n">
-        <v>83100.86258357043</v>
+        <v>95002.44194167416</v>
       </c>
       <c r="AE3" t="n">
-        <v>113702.2663381084</v>
+        <v>129986.5322764822</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.359420445318314e-06</v>
+        <v>1.380915933533682e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.098958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>102850.6816209618</v>
+        <v>117580.8000732931</v>
       </c>
     </row>
     <row r="4">
@@ -21222,28 +21222,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.95425766558481</v>
+        <v>75.94108836970909</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.50503680073979</v>
+        <v>103.9059473917628</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.15367890258867</v>
+        <v>93.98930960563222</v>
       </c>
       <c r="AD4" t="n">
-        <v>63954.25766558481</v>
+        <v>75941.08836970909</v>
       </c>
       <c r="AE4" t="n">
-        <v>87505.03680073979</v>
+        <v>103905.9473917628</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.064017414253976e-06</v>
+        <v>1.513125961259678e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.915625</v>
       </c>
       <c r="AH4" t="n">
-        <v>79153.67890258867</v>
+        <v>93989.30960563221</v>
       </c>
     </row>
     <row r="5">
@@ -21328,28 +21328,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.88596005917427</v>
+        <v>68.87279076329855</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.83388018437128</v>
+        <v>94.23479077539427</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.40552390012975</v>
+        <v>85.24115460317326</v>
       </c>
       <c r="AD5" t="n">
-        <v>56885.96005917426</v>
+        <v>68872.79076329856</v>
       </c>
       <c r="AE5" t="n">
-        <v>77833.88018437129</v>
+        <v>94234.79077539427</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.823920500490354e-06</v>
+        <v>1.655713585858947e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>70405.52390012975</v>
+        <v>85241.15460317326</v>
       </c>
     </row>
     <row r="6">
@@ -21434,28 +21434,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.70627805698585</v>
+        <v>66.69310876111017</v>
       </c>
       <c r="AB6" t="n">
-        <v>74.85154310819537</v>
+        <v>91.25245369921834</v>
       </c>
       <c r="AC6" t="n">
-        <v>67.70781688876671</v>
+        <v>82.54344759181025</v>
       </c>
       <c r="AD6" t="n">
-        <v>54706.27805698585</v>
+        <v>66693.10876111017</v>
       </c>
       <c r="AE6" t="n">
-        <v>74851.54310819537</v>
+        <v>91252.45369921834</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.044848422147368e-06</v>
+        <v>1.697168329400978e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.707291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>67707.81688876671</v>
+        <v>82543.44759181025</v>
       </c>
     </row>
     <row r="7">
@@ -21540,28 +21540,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>51.64657676336496</v>
+        <v>63.63340746748926</v>
       </c>
       <c r="AB7" t="n">
-        <v>70.66512481377102</v>
+        <v>87.06603540479398</v>
       </c>
       <c r="AC7" t="n">
-        <v>63.92094448068591</v>
+        <v>78.75657518372944</v>
       </c>
       <c r="AD7" t="n">
-        <v>51646.57676336496</v>
+        <v>63633.40746748926</v>
       </c>
       <c r="AE7" t="n">
-        <v>70665.12481377102</v>
+        <v>87066.03540479398</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.375350661995347e-06</v>
+        <v>1.759183512860836e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.647916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>63920.94448068591</v>
+        <v>78756.57518372944</v>
       </c>
     </row>
     <row r="8">
@@ -21646,28 +21646,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>50.57220476022884</v>
+        <v>62.55903546435313</v>
       </c>
       <c r="AB8" t="n">
-        <v>69.1951216411333</v>
+        <v>85.59603223215628</v>
       </c>
       <c r="AC8" t="n">
-        <v>62.59123634768187</v>
+        <v>77.42686705072539</v>
       </c>
       <c r="AD8" t="n">
-        <v>50572.20476022884</v>
+        <v>62559.03546435313</v>
       </c>
       <c r="AE8" t="n">
-        <v>69195.1216411333</v>
+        <v>85596.03223215627</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.478104386631796e-06</v>
+        <v>1.77846414190421e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.629166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>62591.23634768187</v>
+        <v>77426.86705072538</v>
       </c>
     </row>
   </sheetData>
@@ -21943,28 +21943,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.38057900428126</v>
+        <v>53.45552062149395</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.72346612660007</v>
+        <v>73.14020160543255</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.9281037454098</v>
+        <v>66.15980341714413</v>
       </c>
       <c r="AD2" t="n">
-        <v>44380.57900428126</v>
+        <v>53455.52062149395</v>
       </c>
       <c r="AE2" t="n">
-        <v>60723.46612660007</v>
+        <v>73140.20160543255</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.20664834486387e-06</v>
+        <v>2.302512882227343e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.155208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>54928.1037454098</v>
+        <v>66159.80341714414</v>
       </c>
     </row>
   </sheetData>
@@ -22240,28 +22240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.50558371003271</v>
+        <v>82.23427933835491</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.83709423574142</v>
+        <v>112.5165689110506</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.4996592771307</v>
+        <v>101.7781454922052</v>
       </c>
       <c r="AD2" t="n">
-        <v>71505.5837100327</v>
+        <v>82234.27933835491</v>
       </c>
       <c r="AE2" t="n">
-        <v>97837.09423574142</v>
+        <v>112516.5689110506</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.699419661009868e-06</v>
+        <v>1.58552875450351e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.209375</v>
       </c>
       <c r="AH2" t="n">
-        <v>88499.6592771307</v>
+        <v>101778.1454922051</v>
       </c>
     </row>
     <row r="3">
@@ -22346,28 +22346,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.646397874955</v>
+        <v>56.46034484929778</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.45541534944233</v>
+        <v>77.25153467740071</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.49475816523052</v>
+        <v>69.8787566310172</v>
       </c>
       <c r="AD3" t="n">
-        <v>45646.397874955</v>
+        <v>56460.34484929778</v>
       </c>
       <c r="AE3" t="n">
-        <v>62455.41534944232</v>
+        <v>77251.53467740072</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.715518308591531e-06</v>
+        <v>2.000700613993644e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.751041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>56494.75816523052</v>
+        <v>69878.7566310172</v>
       </c>
     </row>
     <row r="4">
@@ -22452,28 +22452,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.36985580012028</v>
+        <v>53.18380277446305</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.97230593182124</v>
+        <v>72.76842525977965</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.43951041834219</v>
+        <v>65.82350888412887</v>
       </c>
       <c r="AD4" t="n">
-        <v>42369.85580012028</v>
+        <v>53183.80277446305</v>
       </c>
       <c r="AE4" t="n">
-        <v>57972.30593182124</v>
+        <v>72768.42525977964</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.02844546189896e-05</v>
+        <v>2.117860727266253e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.654166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>52439.51041834219</v>
+        <v>65823.50888412887</v>
       </c>
     </row>
   </sheetData>
@@ -22749,28 +22749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.57766936023067</v>
+        <v>102.9243175435757</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.3006073402507</v>
+        <v>140.8255919634843</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.342093236237</v>
+        <v>127.385395116487</v>
       </c>
       <c r="AD2" t="n">
-        <v>91577.66936023068</v>
+        <v>102924.3175435757</v>
       </c>
       <c r="AE2" t="n">
-        <v>125300.6073402507</v>
+        <v>140825.5919634843</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.410124733555315e-06</v>
+        <v>1.269963727666592e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.555208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>113342.093236237</v>
+        <v>127385.395116487</v>
       </c>
     </row>
     <row r="3">
@@ -22855,28 +22855,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.84959581596639</v>
+        <v>63.11090314473979</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.94290443810863</v>
+        <v>86.35112193914465</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.17221320754297</v>
+        <v>78.10989205585412</v>
       </c>
       <c r="AD3" t="n">
-        <v>51849.59581596639</v>
+        <v>63110.90314473979</v>
       </c>
       <c r="AE3" t="n">
-        <v>70942.90443810863</v>
+        <v>86351.12193914465</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.091085390801528e-06</v>
+        <v>1.801111393511696e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.801041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>64172.21320754297</v>
+        <v>78109.89205585411</v>
       </c>
     </row>
     <row r="4">
@@ -22961,28 +22961,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.60399239822596</v>
+        <v>58.86529972699937</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.13388253915548</v>
+        <v>80.5421000401915</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.91759620561062</v>
+        <v>72.85527505392176</v>
       </c>
       <c r="AD4" t="n">
-        <v>47603.99239822596</v>
+        <v>58865.29972699936</v>
       </c>
       <c r="AE4" t="n">
-        <v>65133.88253915548</v>
+        <v>80542.10004019149</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.679726998866845e-06</v>
+        <v>1.917732133655026e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.691666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>58917.59620561062</v>
+        <v>72855.27505392175</v>
       </c>
     </row>
     <row r="5">
@@ -23067,28 +23067,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>45.15144915973057</v>
+        <v>56.41275648850397</v>
       </c>
       <c r="AB5" t="n">
-        <v>61.77820468167636</v>
+        <v>77.18642218271238</v>
       </c>
       <c r="AC5" t="n">
-        <v>55.88217953312479</v>
+        <v>69.81985838143594</v>
       </c>
       <c r="AD5" t="n">
-        <v>45151.44915973058</v>
+        <v>56412.75648850398</v>
       </c>
       <c r="AE5" t="n">
-        <v>61778.20468167636</v>
+        <v>77186.42218271238</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.001696958682093e-05</v>
+        <v>1.984546099362143e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.635416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>55882.17953312479</v>
+        <v>69819.85838143593</v>
       </c>
     </row>
   </sheetData>
